--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.138059000000001</v>
+        <v>1.490917</v>
       </c>
       <c r="H2">
-        <v>18.414177</v>
+        <v>4.472751</v>
       </c>
       <c r="I2">
-        <v>0.08535364925338247</v>
+        <v>0.02171654063137504</v>
       </c>
       <c r="J2">
-        <v>0.08535364925338246</v>
+        <v>0.02171654063137504</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>690.6138383861281</v>
+        <v>91.00796858967433</v>
       </c>
       <c r="R2">
-        <v>6215.524545475152</v>
+        <v>819.0717173070691</v>
       </c>
       <c r="S2">
-        <v>0.02795599150653682</v>
+        <v>0.004438021475139182</v>
       </c>
       <c r="T2">
-        <v>0.02795599150653682</v>
+        <v>0.004438021475139182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.138059000000001</v>
+        <v>1.490917</v>
       </c>
       <c r="H3">
-        <v>18.414177</v>
+        <v>4.472751</v>
       </c>
       <c r="I3">
-        <v>0.08535364925338247</v>
+        <v>0.02171654063137504</v>
       </c>
       <c r="J3">
-        <v>0.08535364925338246</v>
+        <v>0.02171654063137504</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>652.5644648614941</v>
+        <v>158.506044705322</v>
       </c>
       <c r="R3">
-        <v>5873.080183753446</v>
+        <v>1426.554402347898</v>
       </c>
       <c r="S3">
-        <v>0.0264157559885671</v>
+        <v>0.00772957842310748</v>
       </c>
       <c r="T3">
-        <v>0.0264157559885671</v>
+        <v>0.007729578423107481</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.138059000000001</v>
+        <v>1.490917</v>
       </c>
       <c r="H4">
-        <v>18.414177</v>
+        <v>4.472751</v>
       </c>
       <c r="I4">
-        <v>0.08535364925338247</v>
+        <v>0.02171654063137504</v>
       </c>
       <c r="J4">
-        <v>0.08535364925338246</v>
+        <v>0.02171654063137504</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>765.3647372436649</v>
+        <v>195.8146672280253</v>
       </c>
       <c r="R4">
-        <v>6888.282635192983</v>
+        <v>1762.332005052228</v>
       </c>
       <c r="S4">
-        <v>0.03098190175827855</v>
+        <v>0.009548940733128371</v>
       </c>
       <c r="T4">
-        <v>0.03098190175827855</v>
+        <v>0.009548940733128373</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>111.46059</v>
       </c>
       <c r="I5">
-        <v>0.5166436764692264</v>
+        <v>0.5411744207383854</v>
       </c>
       <c r="J5">
-        <v>0.5166436764692264</v>
+        <v>0.5411744207383854</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>4180.26968507376</v>
+        <v>2267.91115215369</v>
       </c>
       <c r="R5">
-        <v>37622.42716566384</v>
+        <v>20411.20036938321</v>
       </c>
       <c r="S5">
-        <v>0.1692169738215063</v>
+        <v>0.1105951330739591</v>
       </c>
       <c r="T5">
-        <v>0.1692169738215063</v>
+        <v>0.1105951330739591</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>111.46059</v>
       </c>
       <c r="I6">
-        <v>0.5166436764692264</v>
+        <v>0.5411744207383854</v>
       </c>
       <c r="J6">
-        <v>0.5166436764692264</v>
+        <v>0.5411744207383854</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>3949.95770196498</v>
@@ -818,10 +818,10 @@
         <v>35549.61931768482</v>
       </c>
       <c r="S6">
-        <v>0.1598939636445181</v>
+        <v>0.1926204636678477</v>
       </c>
       <c r="T6">
-        <v>0.1598939636445182</v>
+        <v>0.1926204636678477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>111.46059</v>
       </c>
       <c r="I7">
-        <v>0.5166436764692264</v>
+        <v>0.5411744207383854</v>
       </c>
       <c r="J7">
-        <v>0.5166436764692264</v>
+        <v>0.5411744207383854</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>4632.735157176661</v>
+        <v>4879.685531318279</v>
       </c>
       <c r="R7">
-        <v>41694.61641458995</v>
+        <v>43917.16978186452</v>
       </c>
       <c r="S7">
-        <v>0.1875327390032019</v>
+        <v>0.2379588239965786</v>
       </c>
       <c r="T7">
-        <v>0.187532739003202</v>
+        <v>0.2379588239965786</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.621669</v>
+        <v>30.009075</v>
       </c>
       <c r="H8">
-        <v>85.86500699999999</v>
+        <v>90.027225</v>
       </c>
       <c r="I8">
-        <v>0.3980026742773912</v>
+        <v>0.4371090386302395</v>
       </c>
       <c r="J8">
-        <v>0.3980026742773912</v>
+        <v>0.4371090386302395</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>3220.321063891247</v>
+        <v>1831.802142577475</v>
       </c>
       <c r="R8">
-        <v>28982.88957502123</v>
+        <v>16486.21928319728</v>
       </c>
       <c r="S8">
-        <v>0.1303583324088133</v>
+        <v>0.08932819150835516</v>
       </c>
       <c r="T8">
-        <v>0.1303583324088133</v>
+        <v>0.08932819150835516</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.621669</v>
+        <v>30.009075</v>
       </c>
       <c r="H9">
-        <v>85.86500699999999</v>
+        <v>90.027225</v>
       </c>
       <c r="I9">
-        <v>0.3980026742773912</v>
+        <v>0.4371090386302395</v>
       </c>
       <c r="J9">
-        <v>0.3980026742773912</v>
+        <v>0.4371090386302395</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>3042.897455763753</v>
+        <v>3190.39878377895</v>
       </c>
       <c r="R9">
-        <v>27386.07710187378</v>
+        <v>28713.58905401055</v>
       </c>
       <c r="S9">
-        <v>0.1231762393110811</v>
+        <v>0.1555804237374811</v>
       </c>
       <c r="T9">
-        <v>0.1231762393110811</v>
+        <v>0.1555804237374811</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.621669</v>
+        <v>30.009075</v>
       </c>
       <c r="H10">
-        <v>85.86500699999999</v>
+        <v>90.027225</v>
       </c>
       <c r="I10">
-        <v>0.3980026742773912</v>
+        <v>0.4371090386302395</v>
       </c>
       <c r="J10">
-        <v>0.3980026742773912</v>
+        <v>0.4371090386302395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>3568.883286012751</v>
+        <v>3941.344176064699</v>
       </c>
       <c r="R10">
-        <v>32119.94957411476</v>
+        <v>35472.0975845823</v>
       </c>
       <c r="S10">
-        <v>0.1444681025574968</v>
+        <v>0.1922004233844032</v>
       </c>
       <c r="T10">
-        <v>0.1444681025574968</v>
+        <v>0.1922004233844033</v>
       </c>
     </row>
   </sheetData>
